--- a/data/expt_2/raw_transcripts/game79.xlsx
+++ b/data/expt_2/raw_transcripts/game79.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="177">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Alright, now you're on camera and if you ever want to leave the game, just let me know, okay?</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">An apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve"> So you're helping Smurphy</t>
@@ -627,7 +633,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -637,6 +643,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -763,12 +773,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H185" activeCellId="0" sqref="H185"/>
+      <selection pane="bottomLeft" activeCell="F174" activeCellId="0" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -805,6 +815,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -814,10 +827,10 @@
         <v>6000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,10 +841,10 @@
         <v>8000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,10 +855,10 @@
         <v>18000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,10 +869,10 @@
         <v>22000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,10 +883,10 @@
         <v>23000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,10 +897,10 @@
         <v>24000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,10 +911,10 @@
         <v>25000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,10 +925,10 @@
         <v>26000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,10 +939,10 @@
         <v>27000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,10 +953,10 @@
         <v>28000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,10 +967,10 @@
         <v>30000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,10 +981,10 @@
         <v>32000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,10 +995,10 @@
         <v>45000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -996,10 +1009,10 @@
         <v>46000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,10 +1023,10 @@
         <v>48000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1024,10 +1037,10 @@
         <v>49000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,10 +1051,10 @@
         <v>52000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,10 +1065,10 @@
         <v>56000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,10 +1079,10 @@
         <v>57000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,10 +1093,10 @@
         <v>63500</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,10 +1107,10 @@
         <v>71040</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,10 +1121,10 @@
         <v>76440</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,10 +1135,10 @@
         <v>82620</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,10 +1149,10 @@
         <v>88120</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,10 +1163,10 @@
         <v>89380</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,10 +1177,10 @@
         <v>91380</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,10 +1191,10 @@
         <v>92380</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,10 +1205,10 @@
         <v>94860</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,10 +1219,10 @@
         <v>96860</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,10 +1233,10 @@
         <v>97860</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,10 +1247,10 @@
         <v>102240</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,10 +1261,10 @@
         <v>104880</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,10 +1275,10 @@
         <v>111880</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,10 +1289,10 @@
         <v>112880</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,10 +1303,10 @@
         <v>114880</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,10 +1317,10 @@
         <v>117880</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,10 +1331,10 @@
         <v>120880</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,10 +1345,10 @@
         <v>124880</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,10 +1359,10 @@
         <v>128880</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,10 +1373,10 @@
         <v>132880</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,10 +1387,10 @@
         <v>133880</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,10 +1401,10 @@
         <v>136880</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,10 +1415,10 @@
         <v>140880</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,10 +1429,10 @@
         <v>142880</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,10 +1443,10 @@
         <v>147880</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,10 +1457,10 @@
         <v>148880</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,10 +1471,10 @@
         <v>150880</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,10 +1485,10 @@
         <v>153880</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,10 +1499,10 @@
         <v>154880</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,10 +1513,10 @@
         <v>155880</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,10 +1527,10 @@
         <v>156880</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,10 +1541,10 @@
         <v>160880</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>0</v>
@@ -1545,16 +1558,19 @@
         <v>162120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,10 +1581,10 @@
         <v>164280</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,10 +1595,10 @@
         <v>166240</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,10 +1609,10 @@
         <v>167120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,10 +1623,10 @@
         <v>168360</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>1</v>
@@ -1624,10 +1640,10 @@
         <v>169360</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,10 +1654,10 @@
         <v>175680</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,13 +1668,13 @@
         <v>177080</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,16 +1685,19 @@
         <v>178480</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,10 +1708,10 @@
         <v>179480</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,13 +1722,16 @@
         <v>181480</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,10 +1742,10 @@
         <v>183180</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,13 +1756,13 @@
         <v>184180</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,10 +1773,10 @@
         <v>185980</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,13 +1787,16 @@
         <v>189080</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,13 +1807,16 @@
         <v>190480</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,10 +1827,10 @@
         <v>192480</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,13 +1841,16 @@
         <v>194480</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,10 +1861,10 @@
         <v>196480</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,13 +1875,13 @@
         <v>197480</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,13 +1892,16 @@
         <v>201480</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,10 +1912,10 @@
         <v>207480</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,13 +1926,13 @@
         <v>208480</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,10 +1943,10 @@
         <v>209480</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>2</v>
@@ -1926,10 +1960,10 @@
         <v>210480</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,13 +1974,16 @@
         <v>212480</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,10 +1994,10 @@
         <v>215480</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,16 +2008,19 @@
         <v>216480</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,13 +2031,16 @@
         <v>218480</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,10 +2051,10 @@
         <v>219720</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>3</v>
@@ -2025,10 +2068,10 @@
         <v>223160</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,10 +2082,10 @@
         <v>227620</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,16 +2096,19 @@
         <v>228520</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,13 +2119,16 @@
         <v>230800</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,10 +2139,10 @@
         <v>232300</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,13 +2153,13 @@
         <v>233840</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,13 +2170,13 @@
         <v>236300</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,10 +2187,10 @@
         <v>239280</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,10 +2201,10 @@
         <v>241460</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>4</v>
@@ -2169,10 +2218,10 @@
         <v>241980</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,16 +2232,19 @@
         <v>244160</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,10 +2255,10 @@
         <v>245080</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2217,10 +2269,10 @@
         <v>248460</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>5</v>
@@ -2234,10 +2286,10 @@
         <v>255460</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,10 +2300,10 @@
         <v>258460</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,10 +2314,10 @@
         <v>260460</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,16 +2328,19 @@
         <v>262460</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,13 +2351,16 @@
         <v>271460</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,10 +2371,10 @@
         <v>273460</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,10 +2385,10 @@
         <v>280460</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,10 +2399,10 @@
         <v>282460</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>6</v>
@@ -2359,13 +2417,16 @@
         <v>288460</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,10 +2437,10 @@
         <v>290460</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,10 +2451,10 @@
         <v>291460</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,10 +2465,10 @@
         <v>297460</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>7</v>
@@ -2422,10 +2483,10 @@
         <v>299460</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,10 +2497,10 @@
         <v>301460</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,10 +2511,10 @@
         <v>302460</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,10 +2525,10 @@
         <v>303460</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>8</v>
@@ -2481,10 +2542,10 @@
         <v>306840</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,10 +2556,10 @@
         <v>308220</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,10 +2570,10 @@
         <v>309560</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,16 +2584,19 @@
         <v>311360</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,10 +2607,10 @@
         <v>312420</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,10 +2621,10 @@
         <v>314500</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,10 +2635,10 @@
         <v>320900</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,13 +2649,13 @@
         <v>321900</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,10 +2666,10 @@
         <v>322940</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,13 +2680,16 @@
         <v>323900</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,10 +2700,10 @@
         <v>325700</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,10 +2714,10 @@
         <v>328300</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>9</v>
@@ -2664,10 +2731,10 @@
         <v>329220</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,10 +2745,10 @@
         <v>330020</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,10 +2759,10 @@
         <v>335020</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F127" s="2"/>
     </row>
@@ -2707,10 +2774,10 @@
         <v>340020</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,16 +2788,19 @@
         <v>343020</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,10 +2811,10 @@
         <v>344020</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,10 +2825,10 @@
         <v>347020</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" s="2" t="n">
         <v>10</v>
@@ -2772,10 +2842,10 @@
         <v>352020</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,16 +2856,19 @@
         <v>354020</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,10 +2879,10 @@
         <v>357020</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" s="2" t="n">
         <v>11</v>
@@ -2823,10 +2896,10 @@
         <v>360020</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,16 +2910,19 @@
         <v>364020</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,10 +2933,10 @@
         <v>366020</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" s="2" t="n">
         <v>12</v>
@@ -2874,10 +2950,10 @@
         <v>370020</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,16 +2964,19 @@
         <v>374020</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H139" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>132</v>
+      <c r="I139" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,10 +2987,10 @@
         <v>377020</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>13</v>
@@ -2925,10 +3004,10 @@
         <v>380020</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,16 +3018,19 @@
         <v>382020</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,16 +3041,19 @@
         <v>386020</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,10 +3064,10 @@
         <v>387020</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" s="2" t="n">
         <v>14</v>
@@ -2996,10 +3081,10 @@
         <v>389020</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,10 +3095,10 @@
         <v>391020</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,16 +3109,19 @@
         <v>393020</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3044,10 +3132,10 @@
         <v>397020</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>15</v>
@@ -3061,13 +3149,13 @@
         <v>399020</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,10 +3166,10 @@
         <v>400020</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,16 +3180,19 @@
         <v>404020</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,10 +3203,10 @@
         <v>405020</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,10 +3217,10 @@
         <v>407020</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" s="2" t="n">
         <v>16</v>
@@ -3143,10 +3234,10 @@
         <v>409020</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F154" s="2"/>
     </row>
@@ -3158,16 +3249,19 @@
         <v>413020</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,10 +3272,10 @@
         <v>414020</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,13 +3286,16 @@
         <v>416020</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,10 +3306,10 @@
         <v>418020</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" s="2" t="n">
         <v>17</v>
@@ -3226,10 +3323,10 @@
         <v>420020</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,10 +3337,10 @@
         <v>421020</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,10 +3351,10 @@
         <v>423020</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,16 +3365,19 @@
         <v>424020</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,10 +3388,10 @@
         <v>429020</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,10 +3402,10 @@
         <v>431020</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" s="2" t="n">
         <v>18</v>
@@ -3319,13 +3419,13 @@
         <v>433020</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,10 +3436,10 @@
         <v>435020</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,16 +3450,19 @@
         <v>437020</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,10 +3473,10 @@
         <v>438020</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,10 +3487,10 @@
         <v>441020</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" s="2" t="n">
         <v>19</v>
@@ -3401,10 +3504,13 @@
         <v>442020</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3415,10 +3521,13 @@
         <v>443020</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,10 +3538,13 @@
         <v>444020</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3443,10 +3555,13 @@
         <v>446020</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,10 +3572,10 @@
         <v>448020</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,10 +3586,10 @@
         <v>450020</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,16 +3600,19 @@
         <v>454020</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,10 +3623,10 @@
         <v>456020</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,10 +3637,13 @@
         <v>458020</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,10 +3654,10 @@
         <v>460020</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,10 +3668,10 @@
         <v>462020</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,10 +3682,10 @@
         <v>463020</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,10 +3696,10 @@
         <v>465020</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,10 +3710,10 @@
         <v>467020</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3603,10 +3724,10 @@
         <v>469020</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,10 +3738,10 @@
         <v>471020</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,10 +3752,10 @@
         <v>472020</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,10 +3766,10 @@
         <v>474020</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,10 +3780,10 @@
         <v>475020</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,10 +3794,10 @@
         <v>478460</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/expt_2/raw_transcripts/game79.xlsx
+++ b/data/expt_2/raw_transcripts/game79.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="178">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t xml:space="preserve">A person lying down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person lying down</t>
   </si>
   <si>
     <t xml:space="preserve">Great job Smurphy's so happy.</t>
@@ -646,7 +649,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,9 +779,9 @@
   <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F174" activeCellId="0" sqref="F174"/>
+      <selection pane="bottomLeft" activeCell="H139" activeCellId="0" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2973,7 +2976,7 @@
         <v>61</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>63</v>
@@ -2987,7 +2990,7 @@
         <v>377020</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>10</v>
@@ -3004,7 +3007,7 @@
         <v>380020</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>10</v>
@@ -3018,7 +3021,7 @@
         <v>382020</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>15</v>
@@ -3027,7 +3030,7 @@
         <v>61</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>63</v>
@@ -3041,7 +3044,7 @@
         <v>386020</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>15</v>
@@ -3050,7 +3053,7 @@
         <v>61</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>63</v>
@@ -3095,7 +3098,7 @@
         <v>391020</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>10</v>
@@ -3149,7 +3152,7 @@
         <v>399020</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>15</v>
@@ -3166,7 +3169,7 @@
         <v>400020</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>10</v>
@@ -3180,7 +3183,7 @@
         <v>404020</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>15</v>
@@ -3189,7 +3192,7 @@
         <v>61</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>63</v>
@@ -3234,7 +3237,7 @@
         <v>409020</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>10</v>
@@ -3286,7 +3289,7 @@
         <v>416020</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>15</v>
@@ -3306,7 +3309,7 @@
         <v>418020</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>10</v>
@@ -3323,7 +3326,7 @@
         <v>420020</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>10</v>
@@ -3337,7 +3340,7 @@
         <v>421020</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>10</v>
@@ -3351,7 +3354,7 @@
         <v>423020</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>10</v>
@@ -3388,7 +3391,7 @@
         <v>429020</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>10</v>
@@ -3419,7 +3422,7 @@
         <v>433020</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>15</v>
@@ -3436,7 +3439,7 @@
         <v>435020</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>10</v>
@@ -3450,7 +3453,7 @@
         <v>437020</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>60</v>
@@ -3459,7 +3462,7 @@
         <v>61</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I167" s="3" t="s">
         <v>63</v>
@@ -3504,7 +3507,7 @@
         <v>442020</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>15</v>
@@ -3521,7 +3524,7 @@
         <v>443020</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>15</v>
@@ -3538,7 +3541,7 @@
         <v>444020</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>15</v>
@@ -3555,7 +3558,7 @@
         <v>446020</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>15</v>
@@ -3572,7 +3575,7 @@
         <v>448020</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>10</v>
@@ -3586,7 +3589,7 @@
         <v>450020</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>10</v>
@@ -3600,7 +3603,7 @@
         <v>454020</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>15</v>
@@ -3609,7 +3612,7 @@
         <v>61</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I176" s="3" t="s">
         <v>63</v>
@@ -3637,7 +3640,7 @@
         <v>458020</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>15</v>
@@ -3654,7 +3657,7 @@
         <v>460020</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>10</v>
@@ -3668,7 +3671,7 @@
         <v>462020</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>10</v>
@@ -3682,7 +3685,7 @@
         <v>463020</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>10</v>
@@ -3696,7 +3699,7 @@
         <v>465020</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>10</v>
@@ -3710,7 +3713,7 @@
         <v>467020</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>10</v>
@@ -3724,7 +3727,7 @@
         <v>469020</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>10</v>
@@ -3738,7 +3741,7 @@
         <v>471020</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>10</v>
@@ -3752,7 +3755,7 @@
         <v>472020</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>10</v>
@@ -3766,7 +3769,7 @@
         <v>474020</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>10</v>
@@ -3780,7 +3783,7 @@
         <v>475020</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>10</v>
@@ -3794,7 +3797,7 @@
         <v>478460</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>10</v>
